--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfrsf14-Cd160.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfrsf14-Cd160.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.667667333333333</v>
+        <v>5.209944</v>
       </c>
       <c r="H2">
-        <v>11.003002</v>
+        <v>15.629832</v>
       </c>
       <c r="I2">
-        <v>0.1424137080579054</v>
+        <v>0.1751928672265232</v>
       </c>
       <c r="J2">
-        <v>0.1424137080579054</v>
+        <v>0.1751928672265232</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.340345333333333</v>
+        <v>1.374922</v>
       </c>
       <c r="N2">
-        <v>4.021036</v>
+        <v>4.124765999999999</v>
       </c>
       <c r="O2">
-        <v>0.2454623746968833</v>
+        <v>0.2130738145062683</v>
       </c>
       <c r="P2">
-        <v>0.2454623746968833</v>
+        <v>0.2130738145062683</v>
       </c>
       <c r="Q2">
-        <v>4.915940794452444</v>
+        <v>7.163266624367999</v>
       </c>
       <c r="R2">
-        <v>44.243467150072</v>
+        <v>64.46939961931199</v>
       </c>
       <c r="S2">
-        <v>0.03495720696928212</v>
+        <v>0.0373290124942455</v>
       </c>
       <c r="T2">
-        <v>0.03495720696928212</v>
+        <v>0.03732901249424549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.667667333333333</v>
+        <v>5.209944</v>
       </c>
       <c r="H3">
-        <v>11.003002</v>
+        <v>15.629832</v>
       </c>
       <c r="I3">
-        <v>0.1424137080579054</v>
+        <v>0.1751928672265232</v>
       </c>
       <c r="J3">
-        <v>0.1424137080579054</v>
+        <v>0.1751928672265232</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>8.081815000000001</v>
       </c>
       <c r="O3">
-        <v>0.4933508433550188</v>
+        <v>0.4174838403400283</v>
       </c>
       <c r="P3">
-        <v>0.4933508433550189</v>
+        <v>0.4174838403400283</v>
       </c>
       <c r="Q3">
-        <v>9.88046962318111</v>
+        <v>14.03526785612</v>
       </c>
       <c r="R3">
-        <v>88.92422660862999</v>
+        <v>126.31741070508</v>
       </c>
       <c r="S3">
-        <v>0.07025992297568306</v>
+        <v>0.07314019100990959</v>
       </c>
       <c r="T3">
-        <v>0.07025992297568306</v>
+        <v>0.07314019100990959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.667667333333333</v>
+        <v>5.209944</v>
       </c>
       <c r="H4">
-        <v>11.003002</v>
+        <v>15.629832</v>
       </c>
       <c r="I4">
-        <v>0.1424137080579054</v>
+        <v>0.1751928672265232</v>
       </c>
       <c r="J4">
-        <v>0.1424137080579054</v>
+        <v>0.1751928672265232</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2550626666666667</v>
+        <v>0.7672753333333334</v>
       </c>
       <c r="N4">
-        <v>0.765188</v>
+        <v>2.301826</v>
       </c>
       <c r="O4">
-        <v>0.04671056503089221</v>
+        <v>0.1189058594232269</v>
       </c>
       <c r="P4">
-        <v>0.04671056503089221</v>
+        <v>0.1189058594232268</v>
       </c>
       <c r="Q4">
-        <v>0.935485010486222</v>
+        <v>3.997461519248001</v>
       </c>
       <c r="R4">
-        <v>8.419365094375999</v>
+        <v>35.977153673232</v>
       </c>
       <c r="S4">
-        <v>0.006652224771529288</v>
+        <v>0.02083145844238901</v>
       </c>
       <c r="T4">
-        <v>0.006652224771529287</v>
+        <v>0.02083145844238901</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.667667333333333</v>
+        <v>5.209944</v>
       </c>
       <c r="H5">
-        <v>11.003002</v>
+        <v>15.629832</v>
       </c>
       <c r="I5">
-        <v>0.1424137080579054</v>
+        <v>0.1751928672265232</v>
       </c>
       <c r="J5">
-        <v>0.1424137080579054</v>
+        <v>0.1751928672265232</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.171145666666667</v>
+        <v>1.616661</v>
       </c>
       <c r="N5">
-        <v>3.513437</v>
+        <v>4.849983</v>
       </c>
       <c r="O5">
-        <v>0.2144762169172057</v>
+        <v>0.2505364857304765</v>
       </c>
       <c r="P5">
-        <v>0.2144762169172058</v>
+        <v>0.2505364857304765</v>
       </c>
       <c r="Q5">
-        <v>4.295372704208221</v>
+        <v>8.422713276984</v>
       </c>
       <c r="R5">
-        <v>38.65835433787399</v>
+        <v>75.804419492856</v>
       </c>
       <c r="S5">
-        <v>0.03054435334141093</v>
+        <v>0.0438922052799791</v>
       </c>
       <c r="T5">
-        <v>0.03054435334141093</v>
+        <v>0.0438922052799791</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.497701999999999</v>
+        <v>6.497702</v>
       </c>
       <c r="H6">
         <v>19.493106</v>
       </c>
       <c r="I6">
-        <v>0.2523025540689536</v>
+        <v>0.2184958310038485</v>
       </c>
       <c r="J6">
-        <v>0.2523025540689535</v>
+        <v>0.2184958310038485</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.340345333333333</v>
+        <v>1.374922</v>
       </c>
       <c r="N6">
-        <v>4.021036</v>
+        <v>4.124765999999999</v>
       </c>
       <c r="O6">
-        <v>0.2454623746968833</v>
+        <v>0.2130738145062683</v>
       </c>
       <c r="P6">
-        <v>0.2454623746968833</v>
+        <v>0.2130738145062683</v>
       </c>
       <c r="Q6">
-        <v>8.709164553090668</v>
+        <v>8.933833429243998</v>
       </c>
       <c r="R6">
-        <v>78.382480977816</v>
+        <v>80.40450086319599</v>
       </c>
       <c r="S6">
-        <v>0.06193078406385413</v>
+        <v>0.04655574016570696</v>
       </c>
       <c r="T6">
-        <v>0.06193078406385413</v>
+        <v>0.04655574016570695</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.497701999999999</v>
+        <v>6.497702</v>
       </c>
       <c r="H7">
         <v>19.493106</v>
       </c>
       <c r="I7">
-        <v>0.2523025540689536</v>
+        <v>0.2184958310038485</v>
       </c>
       <c r="J7">
-        <v>0.2523025540689535</v>
+        <v>0.2184958310038485</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>8.081815000000001</v>
       </c>
       <c r="O7">
-        <v>0.4933508433550188</v>
+        <v>0.4174838403400283</v>
       </c>
       <c r="P7">
-        <v>0.4933508433550189</v>
+        <v>0.4174838403400283</v>
       </c>
       <c r="Q7">
         <v>17.50440849637667</v>
@@ -883,10 +883,10 @@
         <v>157.53967646739</v>
       </c>
       <c r="S7">
-        <v>0.1244736778305435</v>
+        <v>0.09121847862577248</v>
       </c>
       <c r="T7">
-        <v>0.1244736778305435</v>
+        <v>0.09121847862577248</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.497701999999999</v>
+        <v>6.497702</v>
       </c>
       <c r="H8">
         <v>19.493106</v>
       </c>
       <c r="I8">
-        <v>0.2523025540689536</v>
+        <v>0.2184958310038485</v>
       </c>
       <c r="J8">
-        <v>0.2523025540689535</v>
+        <v>0.2184958310038485</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.2550626666666667</v>
+        <v>0.7672753333333334</v>
       </c>
       <c r="N8">
-        <v>0.765188</v>
+        <v>2.301826</v>
       </c>
       <c r="O8">
-        <v>0.04671056503089221</v>
+        <v>0.1189058594232269</v>
       </c>
       <c r="P8">
-        <v>0.04671056503089221</v>
+        <v>0.1189058594232268</v>
       </c>
       <c r="Q8">
-        <v>1.657321199325333</v>
+        <v>4.985526467950668</v>
       </c>
       <c r="R8">
-        <v>14.915890793928</v>
+        <v>44.869738211556</v>
       </c>
       <c r="S8">
-        <v>0.01178519485929805</v>
+        <v>0.02598043456590474</v>
       </c>
       <c r="T8">
-        <v>0.01178519485929805</v>
+        <v>0.02598043456590473</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.497701999999999</v>
+        <v>6.497702</v>
       </c>
       <c r="H9">
         <v>19.493106</v>
       </c>
       <c r="I9">
-        <v>0.2523025540689536</v>
+        <v>0.2184958310038485</v>
       </c>
       <c r="J9">
-        <v>0.2523025540689535</v>
+        <v>0.2184958310038485</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.171145666666667</v>
+        <v>1.616661</v>
       </c>
       <c r="N9">
-        <v>3.513437</v>
+        <v>4.849983</v>
       </c>
       <c r="O9">
-        <v>0.2144762169172057</v>
+        <v>0.2505364857304765</v>
       </c>
       <c r="P9">
-        <v>0.2144762169172058</v>
+        <v>0.2505364857304765</v>
       </c>
       <c r="Q9">
-        <v>7.609755540591332</v>
+        <v>10.504581413022</v>
       </c>
       <c r="R9">
-        <v>68.48779986532199</v>
+        <v>94.541232717198</v>
       </c>
       <c r="S9">
-        <v>0.05411289731525791</v>
+        <v>0.05474117764646429</v>
       </c>
       <c r="T9">
-        <v>0.05411289731525791</v>
+        <v>0.05474117764646429</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.188929333333333</v>
+        <v>1.714656666666667</v>
       </c>
       <c r="H10">
-        <v>3.566788</v>
+        <v>5.14397</v>
       </c>
       <c r="I10">
-        <v>0.04616553781744658</v>
+        <v>0.057658127945791</v>
       </c>
       <c r="J10">
-        <v>0.04616553781744658</v>
+        <v>0.057658127945791</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.340345333333333</v>
+        <v>1.374922</v>
       </c>
       <c r="N10">
-        <v>4.021036</v>
+        <v>4.124765999999999</v>
       </c>
       <c r="O10">
-        <v>0.2454623746968833</v>
+        <v>0.2130738145062683</v>
       </c>
       <c r="P10">
-        <v>0.2454623746968833</v>
+        <v>0.2130738145062683</v>
       </c>
       <c r="Q10">
-        <v>1.593575883596445</v>
+        <v>2.357519173446666</v>
       </c>
       <c r="R10">
-        <v>14.342182952368</v>
+        <v>21.21767256102</v>
       </c>
       <c r="S10">
-        <v>0.01133190254182921</v>
+        <v>0.01228543725870016</v>
       </c>
       <c r="T10">
-        <v>0.01133190254182921</v>
+        <v>0.01228543725870016</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.188929333333333</v>
+        <v>1.714656666666667</v>
       </c>
       <c r="H11">
-        <v>3.566788</v>
+        <v>5.14397</v>
       </c>
       <c r="I11">
-        <v>0.04616553781744658</v>
+        <v>0.057658127945791</v>
       </c>
       <c r="J11">
-        <v>0.04616553781744658</v>
+        <v>0.057658127945791</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>8.081815000000001</v>
       </c>
       <c r="O11">
-        <v>0.4933508433550188</v>
+        <v>0.4174838403400283</v>
       </c>
       <c r="P11">
-        <v>0.4933508433550189</v>
+        <v>0.4174838403400283</v>
       </c>
       <c r="Q11">
-        <v>3.202902306691111</v>
+        <v>4.61917932283889</v>
       </c>
       <c r="R11">
-        <v>28.82612076022</v>
+        <v>41.57261390555001</v>
       </c>
       <c r="S11">
-        <v>0.02277580701617528</v>
+        <v>0.02407133668162554</v>
       </c>
       <c r="T11">
-        <v>0.02277580701617529</v>
+        <v>0.02407133668162554</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.188929333333333</v>
+        <v>1.714656666666667</v>
       </c>
       <c r="H12">
-        <v>3.566788</v>
+        <v>5.14397</v>
       </c>
       <c r="I12">
-        <v>0.04616553781744658</v>
+        <v>0.057658127945791</v>
       </c>
       <c r="J12">
-        <v>0.04616553781744658</v>
+        <v>0.057658127945791</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1175,28 +1175,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.2550626666666667</v>
+        <v>0.7672753333333334</v>
       </c>
       <c r="N12">
-        <v>0.765188</v>
+        <v>2.301826</v>
       </c>
       <c r="O12">
-        <v>0.04671056503089221</v>
+        <v>0.1189058594232269</v>
       </c>
       <c r="P12">
-        <v>0.04671056503089221</v>
+        <v>0.1189058594232268</v>
       </c>
       <c r="Q12">
-        <v>0.3032514862382222</v>
+        <v>1.315613765468889</v>
       </c>
       <c r="R12">
-        <v>2.729263376144</v>
+        <v>11.84052388922</v>
       </c>
       <c r="S12">
-        <v>0.002156418356407952</v>
+        <v>0.006855889256128653</v>
       </c>
       <c r="T12">
-        <v>0.002156418356407952</v>
+        <v>0.006855889256128652</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.188929333333333</v>
+        <v>1.714656666666667</v>
       </c>
       <c r="H13">
-        <v>3.566788</v>
+        <v>5.14397</v>
       </c>
       <c r="I13">
-        <v>0.04616553781744658</v>
+        <v>0.057658127945791</v>
       </c>
       <c r="J13">
-        <v>0.04616553781744658</v>
+        <v>0.057658127945791</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.171145666666667</v>
+        <v>1.616661</v>
       </c>
       <c r="N13">
-        <v>3.513437</v>
+        <v>4.849983</v>
       </c>
       <c r="O13">
-        <v>0.2144762169172057</v>
+        <v>0.2505364857304765</v>
       </c>
       <c r="P13">
-        <v>0.2144762169172058</v>
+        <v>0.2505364857304765</v>
       </c>
       <c r="Q13">
-        <v>1.392409436706222</v>
+        <v>2.77201856139</v>
       </c>
       <c r="R13">
-        <v>12.531684930356</v>
+        <v>24.94816705251</v>
       </c>
       <c r="S13">
-        <v>0.009901409903034135</v>
+        <v>0.01444546474933666</v>
       </c>
       <c r="T13">
-        <v>0.009901409903034137</v>
+        <v>0.01444546474933666</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.399313</v>
+        <v>16.31603133333333</v>
       </c>
       <c r="H14">
-        <v>43.19793900000001</v>
+        <v>48.948094</v>
       </c>
       <c r="I14">
-        <v>0.5591182000556946</v>
+        <v>0.5486531738238374</v>
       </c>
       <c r="J14">
-        <v>0.5591182000556946</v>
+        <v>0.5486531738238374</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.340345333333333</v>
+        <v>1.374922</v>
       </c>
       <c r="N14">
-        <v>4.021036</v>
+        <v>4.124765999999999</v>
       </c>
       <c r="O14">
-        <v>0.2454623746968833</v>
+        <v>0.2130738145062683</v>
       </c>
       <c r="P14">
-        <v>0.2454623746968833</v>
+        <v>0.2130738145062683</v>
       </c>
       <c r="Q14">
-        <v>19.300051982756</v>
+        <v>22.43327043288933</v>
       </c>
       <c r="R14">
-        <v>173.7004678448041</v>
+        <v>201.899433896004</v>
       </c>
       <c r="S14">
-        <v>0.1372424811219178</v>
+        <v>0.1169036245876157</v>
       </c>
       <c r="T14">
-        <v>0.1372424811219178</v>
+        <v>0.1169036245876157</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.399313</v>
+        <v>16.31603133333333</v>
       </c>
       <c r="H15">
-        <v>43.19793900000001</v>
+        <v>48.948094</v>
       </c>
       <c r="I15">
-        <v>0.5591182000556946</v>
+        <v>0.5486531738238374</v>
       </c>
       <c r="J15">
-        <v>0.5591182000556946</v>
+        <v>0.5486531738238374</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>8.081815000000001</v>
       </c>
       <c r="O15">
-        <v>0.4933508433550188</v>
+        <v>0.4174838403400283</v>
       </c>
       <c r="P15">
-        <v>0.4933508433550189</v>
+        <v>0.4174838403400283</v>
       </c>
       <c r="Q15">
-        <v>38.79086126436501</v>
+        <v>43.95438225673444</v>
       </c>
       <c r="R15">
-        <v>349.1177513792851</v>
+        <v>395.58944031061</v>
       </c>
       <c r="S15">
-        <v>0.275841435532617</v>
+        <v>0.2290538340227207</v>
       </c>
       <c r="T15">
-        <v>0.2758414355326171</v>
+        <v>0.2290538340227207</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.399313</v>
+        <v>16.31603133333333</v>
       </c>
       <c r="H16">
-        <v>43.19793900000001</v>
+        <v>48.948094</v>
       </c>
       <c r="I16">
-        <v>0.5591182000556946</v>
+        <v>0.5486531738238374</v>
       </c>
       <c r="J16">
-        <v>0.5591182000556946</v>
+        <v>0.5486531738238374</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1423,28 +1423,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.2550626666666667</v>
+        <v>0.7672753333333334</v>
       </c>
       <c r="N16">
-        <v>0.765188</v>
+        <v>2.301826</v>
       </c>
       <c r="O16">
-        <v>0.04671056503089221</v>
+        <v>0.1189058594232269</v>
       </c>
       <c r="P16">
-        <v>0.04671056503089221</v>
+        <v>0.1189058594232268</v>
       </c>
       <c r="Q16">
-        <v>3.672727171948</v>
+        <v>12.51888837996044</v>
       </c>
       <c r="R16">
-        <v>33.054544547532</v>
+        <v>112.669995419644</v>
       </c>
       <c r="S16">
-        <v>0.02611672704365692</v>
+        <v>0.06523807715880446</v>
       </c>
       <c r="T16">
-        <v>0.02611672704365692</v>
+        <v>0.06523807715880445</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.399313</v>
+        <v>16.31603133333333</v>
       </c>
       <c r="H17">
-        <v>43.19793900000001</v>
+        <v>48.948094</v>
       </c>
       <c r="I17">
-        <v>0.5591182000556946</v>
+        <v>0.5486531738238374</v>
       </c>
       <c r="J17">
-        <v>0.5591182000556946</v>
+        <v>0.5486531738238374</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>1.171145666666667</v>
+        <v>1.616661</v>
       </c>
       <c r="N17">
-        <v>3.513437</v>
+        <v>4.849983</v>
       </c>
       <c r="O17">
-        <v>0.2144762169172057</v>
+        <v>0.2505364857304765</v>
       </c>
       <c r="P17">
-        <v>0.2144762169172058</v>
+        <v>0.2505364857304765</v>
       </c>
       <c r="Q17">
-        <v>16.863693022927</v>
+        <v>26.37749153137799</v>
       </c>
       <c r="R17">
-        <v>151.773237206343</v>
+        <v>237.397423782402</v>
       </c>
       <c r="S17">
-        <v>0.1199175563575028</v>
+        <v>0.1374576380546965</v>
       </c>
       <c r="T17">
-        <v>0.1199175563575028</v>
+        <v>0.1374576380546965</v>
       </c>
     </row>
   </sheetData>
